--- a/biology/Zoologie/Draculoides_gnophicola/Draculoides_gnophicola.xlsx
+++ b/biology/Zoologie/Draculoides_gnophicola/Draculoides_gnophicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Draculoides gnophicola est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pilbara en Australie-Occidentale[1],[2]. Elle se rencontre à environ 22 kilomètres au sud-ouest de Pannawonica[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pilbara en Australie-Occidentale,. Elle se rencontre à environ 22 kilomètres au sud-ouest de Pannawonica.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,55 mm[2].
-Le mâle décrit par Abrams, Huey, Hillyer, Didham et Harvey en 2020 mesure 3,17 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,55 mm.
+Le mâle décrit par Abrams, Huey, Hillyer, Didham et Harvey en 2020 mesure 3,17 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Paradraculoides gnophicola par Harvey, Berry, Edward et Humphreys en 2008. Elle est placée dans le genre Draculoides par Abrams, Huey, Hillyer, Humphreys, Didham et Harvey en 2019[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Paradraculoides gnophicola par Harvey, Berry, Edward et Humphreys en 2008. Elle est placée dans le genre Draculoides par Abrams, Huey, Hillyer, Humphreys, Didham et Harvey en 2019.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Harvey, Berry, Edward &amp; Humphreys, 2008 : « Molecular and morphological systematics of hypogean schizomids (Schizomida: Hubbardiidae) in semiarid Australia. » Invertebrate Systematics, vol. 22, no 2, p. 167-194.</t>
         </is>
